--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Col8a1</t>
+  </si>
+  <si>
+    <t>Itga1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Col8a1</t>
-  </si>
-  <si>
-    <t>Itga1</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.822377</v>
+        <v>6.197291666666668</v>
       </c>
       <c r="H2">
-        <v>11.467131</v>
+        <v>18.591875</v>
       </c>
       <c r="I2">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="J2">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N2">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O2">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P2">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q2">
-        <v>179.090295910994</v>
+        <v>260.9372692922917</v>
       </c>
       <c r="R2">
-        <v>1611.812663198946</v>
+        <v>2348.435423630625</v>
       </c>
       <c r="S2">
-        <v>0.02432081532725696</v>
+        <v>0.04157471561623788</v>
       </c>
       <c r="T2">
-        <v>0.02432081532725697</v>
+        <v>0.04157471561623789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.822377</v>
+        <v>6.197291666666668</v>
       </c>
       <c r="H3">
-        <v>11.467131</v>
+        <v>18.591875</v>
       </c>
       <c r="I3">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="J3">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O3">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P3">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q3">
-        <v>11.177364244384</v>
+        <v>18.12207071333333</v>
       </c>
       <c r="R3">
-        <v>100.596278199456</v>
+        <v>163.09863642</v>
       </c>
       <c r="S3">
-        <v>0.001517908104681737</v>
+        <v>0.002887360392509646</v>
       </c>
       <c r="T3">
-        <v>0.001517908104681737</v>
+        <v>0.002887360392509646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.822377</v>
+        <v>6.197291666666668</v>
       </c>
       <c r="H4">
-        <v>11.467131</v>
+        <v>18.591875</v>
       </c>
       <c r="I4">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="J4">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N4">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O4">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P4">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q4">
-        <v>11.89457340452767</v>
+        <v>47.73984891902779</v>
       </c>
       <c r="R4">
-        <v>107.051160640749</v>
+        <v>429.6586402712501</v>
       </c>
       <c r="S4">
-        <v>0.001615306522871521</v>
+        <v>0.007606313378513512</v>
       </c>
       <c r="T4">
-        <v>0.001615306522871521</v>
+        <v>0.007606313378513513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.822377</v>
+        <v>6.197291666666668</v>
       </c>
       <c r="H5">
-        <v>11.467131</v>
+        <v>18.591875</v>
       </c>
       <c r="I5">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="J5">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N5">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O5">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P5">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q5">
-        <v>80.98376374250932</v>
+        <v>104.1311252677778</v>
       </c>
       <c r="R5">
-        <v>728.853873682584</v>
+        <v>937.1801274100002</v>
       </c>
       <c r="S5">
-        <v>0.01099775480557944</v>
+        <v>0.01659104478079473</v>
       </c>
       <c r="T5">
-        <v>0.01099775480557944</v>
+        <v>0.01659104478079473</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.822377</v>
+        <v>6.197291666666668</v>
       </c>
       <c r="H6">
-        <v>11.467131</v>
+        <v>18.591875</v>
       </c>
       <c r="I6">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="J6">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N6">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O6">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P6">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q6">
-        <v>2.272775171194667</v>
+        <v>4.023515181319445</v>
       </c>
       <c r="R6">
-        <v>20.454976540752</v>
+        <v>36.21163663187501</v>
       </c>
       <c r="S6">
-        <v>0.0003086473498623944</v>
+        <v>0.0006410602053691116</v>
       </c>
       <c r="T6">
-        <v>0.0003086473498623945</v>
+        <v>0.0006410602053691117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.822377</v>
+        <v>6.197291666666668</v>
       </c>
       <c r="H7">
-        <v>11.467131</v>
+        <v>18.591875</v>
       </c>
       <c r="I7">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="J7">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N7">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O7">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P7">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q7">
-        <v>1.097475787737333</v>
+        <v>2.726074987152778</v>
       </c>
       <c r="R7">
-        <v>9.877282089636001</v>
+        <v>24.534674884375</v>
       </c>
       <c r="S7">
-        <v>0.0001490393760528541</v>
+        <v>0.0004343411450836552</v>
       </c>
       <c r="T7">
-        <v>0.0001490393760528541</v>
+        <v>0.0004343411450836552</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>230.074539</v>
       </c>
       <c r="I8">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="J8">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N8">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O8">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P8">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q8">
-        <v>3593.236814953586</v>
+        <v>3229.099912749137</v>
       </c>
       <c r="R8">
-        <v>32339.13133458227</v>
+        <v>29061.89921474223</v>
       </c>
       <c r="S8">
-        <v>0.4879686448618037</v>
+        <v>0.5144872977826082</v>
       </c>
       <c r="T8">
-        <v>0.4879686448618037</v>
+        <v>0.5144872977826083</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>230.074539</v>
       </c>
       <c r="I9">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="J9">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O9">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P9">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q9">
         <v>224.260708782496</v>
@@ -1013,10 +1013,10 @@
         <v>2018.346379042464</v>
       </c>
       <c r="S9">
-        <v>0.03045504646532898</v>
+        <v>0.0357310981938893</v>
       </c>
       <c r="T9">
-        <v>0.03045504646532898</v>
+        <v>0.0357310981938893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>230.074539</v>
       </c>
       <c r="I10">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="J10">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N10">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O10">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P10">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q10">
-        <v>238.6506696965756</v>
+        <v>590.7808508810954</v>
       </c>
       <c r="R10">
-        <v>2147.856027269181</v>
+        <v>5317.027657929858</v>
       </c>
       <c r="S10">
-        <v>0.03240923153257411</v>
+        <v>0.09412816319230999</v>
       </c>
       <c r="T10">
-        <v>0.03240923153257412</v>
+        <v>0.09412816319231</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>230.074539</v>
       </c>
       <c r="I11">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="J11">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N11">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O11">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P11">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q11">
-        <v>1624.844270946477</v>
+        <v>1288.623156165542</v>
       </c>
       <c r="R11">
-        <v>14623.59843851829</v>
+        <v>11597.60840548987</v>
       </c>
       <c r="S11">
-        <v>0.2206570559740465</v>
+        <v>0.2053142557955936</v>
       </c>
       <c r="T11">
-        <v>0.2206570559740465</v>
+        <v>0.2053142557955936</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1169,10 +1169,10 @@
         <v>230.074539</v>
       </c>
       <c r="I12">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="J12">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N12">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O12">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P12">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q12">
-        <v>45.60056911909867</v>
+        <v>49.79101895325633</v>
       </c>
       <c r="R12">
-        <v>410.4051220718879</v>
+        <v>448.119170579307</v>
       </c>
       <c r="S12">
-        <v>0.006192647204707273</v>
+        <v>0.007933123002469823</v>
       </c>
       <c r="T12">
-        <v>0.006192647204707274</v>
+        <v>0.007933123002469825</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,40 +1231,40 @@
         <v>230.074539</v>
       </c>
       <c r="I13">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="J13">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N13">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O13">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P13">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q13">
-        <v>22.01956495720934</v>
+        <v>33.73519055762834</v>
       </c>
       <c r="R13">
-        <v>198.176084614884</v>
+        <v>303.616715018655</v>
       </c>
       <c r="S13">
-        <v>0.00299030034087934</v>
+        <v>0.005374973676611642</v>
       </c>
       <c r="T13">
-        <v>0.00299030034087934</v>
+        <v>0.005374973676611642</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.097817</v>
+        <v>5.980576333333334</v>
       </c>
       <c r="H14">
-        <v>0.293451</v>
+        <v>17.941729</v>
       </c>
       <c r="I14">
-        <v>0.0009957175266531498</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="J14">
-        <v>0.00099571752665315</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N14">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O14">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P14">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q14">
-        <v>4.583031834673999</v>
+        <v>251.8124595632404</v>
       </c>
       <c r="R14">
-        <v>41.247286512066</v>
+        <v>2266.312136069163</v>
       </c>
       <c r="S14">
-        <v>0.000622384760285627</v>
+        <v>0.04012087435175893</v>
       </c>
       <c r="T14">
-        <v>0.0006223847602856272</v>
+        <v>0.04012087435175894</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.097817</v>
+        <v>5.980576333333334</v>
       </c>
       <c r="H15">
-        <v>0.293451</v>
+        <v>17.941729</v>
       </c>
       <c r="I15">
-        <v>0.0009957175266531498</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="J15">
-        <v>0.00099571752665315</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O15">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P15">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q15">
-        <v>0.286035688864</v>
+        <v>17.48835346932267</v>
       </c>
       <c r="R15">
-        <v>2.574321199776</v>
+        <v>157.395181223904</v>
       </c>
       <c r="S15">
-        <v>3.884421057254516E-05</v>
+        <v>0.002786391242827401</v>
       </c>
       <c r="T15">
-        <v>3.884421057254517E-05</v>
+        <v>0.002786391242827401</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.097817</v>
+        <v>5.980576333333334</v>
       </c>
       <c r="H16">
-        <v>0.293451</v>
+        <v>17.941729</v>
       </c>
       <c r="I16">
-        <v>0.0009957175266531498</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="J16">
-        <v>0.00099571752665315</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N16">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O16">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P16">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q16">
-        <v>0.3043895164476667</v>
+        <v>46.0704168786709</v>
       </c>
       <c r="R16">
-        <v>2.739505648029</v>
+        <v>414.6337519080381</v>
       </c>
       <c r="S16">
-        <v>4.133669654974471E-05</v>
+        <v>0.007340325455413392</v>
       </c>
       <c r="T16">
-        <v>4.133669654974473E-05</v>
+        <v>0.007340325455413393</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.097817</v>
+        <v>5.980576333333334</v>
       </c>
       <c r="H17">
-        <v>0.293451</v>
+        <v>17.941729</v>
       </c>
       <c r="I17">
-        <v>0.0009957175266531498</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="J17">
-        <v>0.00099571752665315</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N17">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O17">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P17">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q17">
-        <v>2.072424781229333</v>
+        <v>100.4897262927769</v>
       </c>
       <c r="R17">
-        <v>18.651823031064</v>
+        <v>904.4075366349923</v>
       </c>
       <c r="S17">
-        <v>0.0002814393718404447</v>
+        <v>0.01601086653626293</v>
       </c>
       <c r="T17">
-        <v>0.0002814393718404449</v>
+        <v>0.01601086653626294</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.097817</v>
+        <v>5.980576333333334</v>
       </c>
       <c r="H18">
-        <v>0.293451</v>
+        <v>17.941729</v>
       </c>
       <c r="I18">
-        <v>0.0009957175266531498</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="J18">
-        <v>0.00099571752665315</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N18">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O18">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P18">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q18">
-        <v>0.05816172735466667</v>
+        <v>3.882815423975223</v>
       </c>
       <c r="R18">
-        <v>0.523455546192</v>
+        <v>34.94533881577701</v>
       </c>
       <c r="S18">
-        <v>7.898477262051815E-06</v>
+        <v>0.0006186427392297413</v>
       </c>
       <c r="T18">
-        <v>7.898477262051819E-06</v>
+        <v>0.0006186427392297414</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,433 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.097817</v>
+        <v>5.980576333333334</v>
       </c>
       <c r="H19">
-        <v>0.293451</v>
+        <v>17.941729</v>
       </c>
       <c r="I19">
-        <v>0.0009957175266531498</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="J19">
-        <v>0.00099571752665315</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N19">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O19">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P19">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q19">
-        <v>0.02808508661733334</v>
+        <v>2.630745885133889</v>
       </c>
       <c r="R19">
-        <v>0.252765779556</v>
+        <v>23.676712966205</v>
       </c>
       <c r="S19">
-        <v>3.81401014273632E-06</v>
+        <v>0.0004191525125163882</v>
       </c>
       <c r="T19">
-        <v>3.814010142736321E-06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>17.62599333333333</v>
-      </c>
-      <c r="H20">
-        <v>52.87798</v>
-      </c>
-      <c r="I20">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="J20">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>46.85312199999999</v>
-      </c>
-      <c r="N20">
-        <v>140.559366</v>
-      </c>
-      <c r="O20">
-        <v>0.6250615697984291</v>
-      </c>
-      <c r="P20">
-        <v>0.6250615697984292</v>
-      </c>
-      <c r="Q20">
-        <v>825.8328160178532</v>
-      </c>
-      <c r="R20">
-        <v>7432.495344160679</v>
-      </c>
-      <c r="S20">
-        <v>0.1121497248490827</v>
-      </c>
-      <c r="T20">
-        <v>0.1121497248490828</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>17.62599333333333</v>
-      </c>
-      <c r="H21">
-        <v>52.87798</v>
-      </c>
-      <c r="I21">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="J21">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.924192</v>
-      </c>
-      <c r="N21">
-        <v>8.772575999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.03901127531932681</v>
-      </c>
-      <c r="P21">
-        <v>0.03901127531932681</v>
-      </c>
-      <c r="Q21">
-        <v>51.54178869738666</v>
-      </c>
-      <c r="R21">
-        <v>463.87609827648</v>
-      </c>
-      <c r="S21">
-        <v>0.006999476538743543</v>
-      </c>
-      <c r="T21">
-        <v>0.006999476538743546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>17.62599333333333</v>
-      </c>
-      <c r="H22">
-        <v>52.87798</v>
-      </c>
-      <c r="I22">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="J22">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>3.111826333333333</v>
-      </c>
-      <c r="N22">
-        <v>9.335478999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.0415144812090307</v>
-      </c>
-      <c r="P22">
-        <v>0.04151448120903071</v>
-      </c>
-      <c r="Q22">
-        <v>54.84903020582444</v>
-      </c>
-      <c r="R22">
-        <v>493.64127185242</v>
-      </c>
-      <c r="S22">
-        <v>0.007448606457035315</v>
-      </c>
-      <c r="T22">
-        <v>0.007448606457035318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>17.62599333333333</v>
-      </c>
-      <c r="H23">
-        <v>52.87798</v>
-      </c>
-      <c r="I23">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="J23">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>21.18675466666667</v>
-      </c>
-      <c r="N23">
-        <v>63.560264</v>
-      </c>
-      <c r="O23">
-        <v>0.2826498121273724</v>
-      </c>
-      <c r="P23">
-        <v>0.2826498121273725</v>
-      </c>
-      <c r="Q23">
-        <v>373.4375965096356</v>
-      </c>
-      <c r="R23">
-        <v>3360.93836858672</v>
-      </c>
-      <c r="S23">
-        <v>0.05071356197590604</v>
-      </c>
-      <c r="T23">
-        <v>0.05071356197590605</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>17.62599333333333</v>
-      </c>
-      <c r="H24">
-        <v>52.87798</v>
-      </c>
-      <c r="I24">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="J24">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.5945973333333333</v>
-      </c>
-      <c r="N24">
-        <v>1.783792</v>
-      </c>
-      <c r="O24">
-        <v>0.007932447758151381</v>
-      </c>
-      <c r="P24">
-        <v>0.007932447758151382</v>
-      </c>
-      <c r="Q24">
-        <v>10.48036863335111</v>
-      </c>
-      <c r="R24">
-        <v>94.32331770015999</v>
-      </c>
-      <c r="S24">
-        <v>0.001423254726319661</v>
-      </c>
-      <c r="T24">
-        <v>0.001423254726319661</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>17.62599333333333</v>
-      </c>
-      <c r="H25">
-        <v>52.87798</v>
-      </c>
-      <c r="I25">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="J25">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.2871186666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.861356</v>
-      </c>
-      <c r="O25">
-        <v>0.003830413787689507</v>
-      </c>
-      <c r="P25">
-        <v>0.003830413787689508</v>
-      </c>
-      <c r="Q25">
-        <v>5.060751704542223</v>
-      </c>
-      <c r="R25">
-        <v>45.54676534088</v>
-      </c>
-      <c r="S25">
-        <v>0.0006872600606145771</v>
-      </c>
-      <c r="T25">
-        <v>0.0006872600606145774</v>
+        <v>0.0004191525125163882</v>
       </c>
     </row>
   </sheetData>
